--- a/nodes_source_analyses/energy/energy_hydrogen_biomass_gasification.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_biomass_gasification.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A38914A-8833-5B46-B3A0-B0128EC2EA31}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF19CCE4-91BD-1648-A1FF-7B34BF4AFB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31420" yWindow="-3500" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -47,10 +47,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -60,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="178">
   <si>
     <t>Source</t>
   </si>
@@ -697,6 +703,9 @@
   </si>
   <si>
     <t>There is a power plant that runs on hydrogen and when this hydrogen is produced with electricity…….</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1997,14 +2006,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="448">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3258,12 +3267,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1">
@@ -3437,60 +3446,60 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="35" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="36"/>
@@ -3906,14 +3915,16 @@
         <v>86</v>
       </c>
       <c r="E29" s="119">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F29" s="112"/>
       <c r="G29" s="112" t="s">
         <v>87</v>
       </c>
       <c r="H29" s="112"/>
-      <c r="I29" s="114"/>
+      <c r="I29" s="172" t="s">
+        <v>177</v>
+      </c>
       <c r="J29" s="118"/>
     </row>
     <row r="30" spans="1:11" ht="17" thickBot="1">
@@ -4178,29 +4189,29 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.1640625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="42" customWidth="1"/>
-    <col min="17" max="17" width="23.5" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="42" customWidth="1"/>
     <col min="18" max="18" width="11" style="42" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="42" customWidth="1"/>
-    <col min="20" max="20" width="22.5" style="42" customWidth="1"/>
-    <col min="21" max="16384" width="10.6640625" style="42"/>
+    <col min="19" max="19" width="2.42578125" style="42" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" style="42" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="17" thickBot="1"/>
@@ -5085,18 +5096,18 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="60" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="60" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="65" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="65" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="60" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="60"/>
+    <col min="1" max="1" width="3.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="60" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="65" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="60" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5353,22 +5364,22 @@
   </sheetPr>
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+    <sheetView topLeftCell="B14" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="70" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="70" customWidth="1"/>
     <col min="4" max="4" width="4" style="70" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="70" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="70" customWidth="1"/>
-    <col min="7" max="13" width="10.6640625" style="70"/>
-    <col min="14" max="14" width="16.5" style="70" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="70"/>
-    <col min="16" max="16" width="55.1640625" style="70" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="70"/>
+    <col min="5" max="5" width="13.140625" style="70" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="70" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="70"/>
+    <col min="14" max="14" width="16.42578125" style="70" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="70"/>
+    <col min="16" max="16" width="55.140625" style="70" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1"/>
@@ -5724,7 +5735,7 @@
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="76"/>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="180" t="s">
         <v>175</v>
       </c>
       <c r="D24" s="77"/>
@@ -5742,7 +5753,7 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="76"/>
-      <c r="C25" s="183" t="s">
+      <c r="C25" s="181" t="s">
         <v>176</v>
       </c>
       <c r="D25" s="77"/>
